--- a/Prototype_Removal.xlsx
+++ b/Prototype_Removal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{7D634EB1-213D-47EF-B856-3C609B234F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7F66160E-408F-499D-8C34-63C609233E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7761D6C6-B5CC-4819-852B-EE20811462A4}"/>
   </bookViews>
@@ -161,16 +161,16 @@
     <t>Gemfibrozil</t>
   </si>
   <si>
-    <t>17_a_ethinyl estradiole</t>
-  </si>
-  <si>
-    <t>B_estradiol</t>
-  </si>
-  <si>
     <t>PFOS</t>
   </si>
   <si>
     <t>PFOA</t>
+  </si>
+  <si>
+    <t>EthinylEstradiole</t>
+  </si>
+  <si>
+    <t>Estradiol</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <v>4.68</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
@@ -2125,7 +2125,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
         <v>14.45</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>37.880000000000003</v>
